--- a/data/time_series/campylobacter_germany.xlsx
+++ b/data/time_series/campylobacter_germany.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\epiRhandbook_eng\data\time_series\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">date</t>
+    <t>date</t>
   </si>
   <si>
-    <t xml:space="preserve">case</t>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -61,12 +67,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,14 +363,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B523"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="B523" sqref="A511:B523"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -363,4184 +383,4119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>37256</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>514</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>37263</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>913</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>37270</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1023</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>37277</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>887</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>37284</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>815</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>37291</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>792</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>37298</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>803</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>37305</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>807</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>37312</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>692</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>37319</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>705</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>37326</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>700</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>37333</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>769</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>37340</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>589</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>37347</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>493</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>37354</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>718</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>37361</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>823</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>37368</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>781</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>37375</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>797</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>37382</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>671</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>37389</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>849</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>37396</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>869</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>37403</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1075</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>37410</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1164</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>37417</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1341</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>37424</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1443</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>37431</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1399</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>37438</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1492</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>37445</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1509</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>37452</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1481</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>37459</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1646</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>37466</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1596</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>37473</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1705</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>37480</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>1668</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>37487</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1698</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>37494</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1732</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>37501</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1633</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>37508</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1509</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37515</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1552</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>37522</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1388</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>37529</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1188</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>37536</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1220</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>37543</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1248</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>37550</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1189</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>37557</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1113</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>37564</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1188</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>37571</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1150</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>37578</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1109</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>37585</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>980</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>37592</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>905</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>37599</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>869</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>37606</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>803</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>37613</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>428</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>37620</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>384</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>37627</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>652</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>37634</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>910</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>37641</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>763</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>37648</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>723</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>37655</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>696</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>37662</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>631</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>37669</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>686</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>37676</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>618</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>37683</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>544</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>37690</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>570</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>37697</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>505</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>37704</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>574</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>37711</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>641</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>37718</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>633</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>37725</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>512</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>37732</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>462</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>37739</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>555</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>37746</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>649</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>37753</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>786</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>37760</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>775</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>37767</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>723</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>37774</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>867</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>37781</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>892</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>37788</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>979</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>37795</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>1236</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>37802</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>1250</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>37809</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>1481</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>37816</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>1377</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>37823</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>1430</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>37830</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>1341</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>37837</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>1324</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>37844</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>1273</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>37851</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>1451</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>37858</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>1486</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>37865</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>1371</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>37872</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>1355</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>37879</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>1216</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>37886</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>1233</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>37893</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>1055</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>37900</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>1089</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>37907</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>1132</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>37914</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>1083</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>37921</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>983</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>37928</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>863</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>37935</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>1052</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>37942</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>1049</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>37949</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>970</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>37956</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>949</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>37963</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>875</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>37970</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>838</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>37977</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>444</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>37984</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>361</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>37991</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>708</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>37998</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>1113</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>38005</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>745</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>38012</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>657</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>38019</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>650</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>38026</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>695</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>38033</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>684</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>38040</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>603</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>38047</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>687</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>38054</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>636</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>38061</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>629</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>38068</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>598</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>38075</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>688</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>38082</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>540</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>38089</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>533</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>38096</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>745</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>38103</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>813</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>38110</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>862</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>38117</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>868</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>38124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>798</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>38131</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>943</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>38138</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>982</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>38145</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>1077</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>38152</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>1310</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>38159</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>1429</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>38166</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>1336</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>38173</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>1507</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>38180</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>1496</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>38187</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>1521</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>38194</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>1524</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>38201</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>1555</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>38208</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>1604</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>38215</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>1760</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>38222</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>1753</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>38229</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>1730</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>38236</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>1671</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>38243</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>1605</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>38250</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>1520</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>38257</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>1240</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>38264</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>1252</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>38271</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>1297</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>38278</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>1078</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>38285</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>1097</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>38292</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>1078</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>38299</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>1176</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>38306</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>1038</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>38313</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>1109</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>38320</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>1105</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>38327</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>1015</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>38334</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>1057</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>38341</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>876</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>38348</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>451</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>38355</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>787</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>38362</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>1298</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>38369</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>1024</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>38376</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>896</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>38383</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>873</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>38390</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>809</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>38397</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>726</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>38404</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>771</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>38411</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>817</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>38418</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>753</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>38425</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>669</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>38432</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>604</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>38439</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>528</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>38446</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>750</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>38453</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>1031</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>38460</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>1078</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>38467</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>1090</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>38474</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>896</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>38481</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>1067</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>38488</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>1006</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>38495</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>1232</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>38502</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>1485</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>38509</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>1774</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>38516</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>1676</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>38523</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>1791</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>38530</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>1826</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>38537</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>1836</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>38544</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>1866</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>38551</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>1756</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>38558</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>1790</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>38565</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>1683</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>38572</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>1724</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>38579</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>1628</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>38586</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>1751</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>38593</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>1730</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>38600</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>1786</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>38607</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>1729</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>38614</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>1509</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>38621</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>1291</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>38628</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>1013</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>38635</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>1368</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>38642</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>1291</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>38649</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>1251</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>38656</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>991</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>38663</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>1054</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>38670</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>1051</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>38677</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>921</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>38684</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>839</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>38691</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>806</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>38698</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>864</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>38705</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>833</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>38712</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>522</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>38719</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>714</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>38726</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>1234</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>38733</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>1042</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>38740</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>738</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>38747</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>756</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>38754</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>701</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>38761</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>712</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>38768</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>655</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>38775</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>637</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>38782</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>618</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>38789</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>631</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>38796</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>633</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>38803</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>539</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>38810</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>560</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>38817</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>463</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>38824</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>454</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>38831</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>676</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>38838</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>646</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>38845</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>757</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>38852</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>871</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>38859</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>721</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>38866</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>808</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>38873</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>903</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>38880</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>1065</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>38887</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>1223</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>38894</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>1310</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
         <v>38901</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>1258</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>38908</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>1352</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
         <v>38915</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>1370</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>38922</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>1367</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>38929</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>1554</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>38936</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>1492</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>38943</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>1561</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>38950</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>1590</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>38957</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>1516</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>38964</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>1364</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>38971</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>1466</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
         <v>38978</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>1301</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
         <v>38985</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>1216</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>38992</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>978</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>38999</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>1097</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>39006</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>1133</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>39013</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>1189</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>39020</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>997</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>39027</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>1095</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
         <v>39034</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>1131</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
         <v>39041</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>1133</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>39048</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>1131</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
         <v>39055</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>1000</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>39062</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>1077</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>39069</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>1059</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>39076</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>565</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
         <v>39083</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>657</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>39090</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>1223</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>39097</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>1180</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>39104</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>978</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>39111</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>1022</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>39118</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>901</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
         <v>39125</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>924</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>39132</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>835</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>39139</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>929</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>39146</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>1026</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
         <v>39153</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>1015</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>39160</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>1026</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>39167</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>939</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>39174</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>877</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>39181</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>770</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>39188</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>1126</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
         <v>39195</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>1227</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>39202</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>974</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
         <v>39209</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>1304</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
         <v>39216</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>1201</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>39223</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>1339</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
         <v>39230</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>1351</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
         <v>39237</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>1473</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>39244</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>1808</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
         <v>39251</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>2023</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
         <v>39258</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>1879</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
         <v>39265</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>1882</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>39272</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>1933</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
         <v>39279</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>1945</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
         <v>39286</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>1834</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>39293</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>1590</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>39300</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>1432</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>39307</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>1712</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
         <v>39314</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>1717</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
         <v>39321</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>1688</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
         <v>39328</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>1623</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>39335</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>1501</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>39342</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>1431</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
         <v>39349</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>1362</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
         <v>39356</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>1155</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
         <v>39363</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>1356</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
         <v>39370</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>1372</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>39377</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>1274</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
         <v>39384</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>1156</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
         <v>39391</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>1247</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
         <v>39398</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>1320</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>39405</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>1133</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
         <v>39412</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>1078</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
         <v>39419</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>1035</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
         <v>39426</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>978</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
         <v>39433</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>941</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
         <v>39440</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>442</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
         <v>39447</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>479</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
         <v>39454</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>1037</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
         <v>39461</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>1062</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
         <v>39468</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>828</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
         <v>39475</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>827</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
         <v>39482</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>757</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
         <v>39489</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>832</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
         <v>39496</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>837</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
         <v>39503</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>814</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
         <v>39510</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>792</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
         <v>39517</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>747</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
         <v>39524</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>643</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
         <v>39531</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>542</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
         <v>39538</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>798</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
         <v>39545</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>994</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
         <v>39552</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>963</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
         <v>39559</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>967</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
         <v>39566</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>936</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
         <v>39573</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>1071</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
         <v>39580</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>1013</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
         <v>39587</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>1329</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
         <v>39594</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>1528</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
         <v>39601</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>1649</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
         <v>39608</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>1801</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
         <v>39615</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>1652</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
         <v>39622</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>1468</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
         <v>39629</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>1680</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
         <v>39636</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>1891</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
         <v>39643</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>1810</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
         <v>39650</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>1743</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
         <v>39657</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>1595</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
         <v>39664</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>1808</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
         <v>39671</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>1874</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
         <v>39678</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>1759</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
         <v>39685</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>1843</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
         <v>39692</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>1807</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
         <v>39699</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>1923</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
         <v>39706</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>1545</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
         <v>39713</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>1469</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
         <v>39720</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>1251</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
         <v>39727</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>1324</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
         <v>39734</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>1444</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
         <v>39741</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>1354</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
         <v>39748</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>1169</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
         <v>39755</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>1330</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
         <v>39762</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>1248</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
         <v>39769</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>1302</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
         <v>39776</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>1157</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
         <v>39783</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>1213</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
         <v>39790</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>1088</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
         <v>39797</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>1092</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
         <v>39804</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>665</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
         <v>39811</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>454</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
         <v>39818</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>1005</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
         <v>39825</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>1426</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
         <v>39832</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>908</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
         <v>39839</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>713</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
         <v>39846</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>703</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
         <v>39853</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>765</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
         <v>39860</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>745</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
         <v>39867</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>710</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
         <v>39874</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>775</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
         <v>39881</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>816</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
         <v>39888</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>758</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
         <v>39895</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>924</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
         <v>39902</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>887</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
         <v>39909</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>825</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
         <v>39916</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>680</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
         <v>39923</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>1041</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
         <v>39930</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>1021</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>39937</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>1098</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
         <v>39944</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>1165</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
         <v>39951</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>952</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
         <v>39958</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>1239</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
         <v>39965</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>1165</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
         <v>39972</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>1276</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
         <v>39979</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>1537</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
         <v>39986</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>1934</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
         <v>39993</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>1719</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
         <v>40000</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>1949</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
         <v>40007</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>1787</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
         <v>40014</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>1645</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
         <v>40021</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>1764</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
         <v>40028</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>1675</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
         <v>40035</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>1884</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
         <v>40042</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>1914</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
         <v>40049</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>1850</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
         <v>40056</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>1825</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
         <v>40063</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>1644</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
         <v>40070</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>1548</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
         <v>40077</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>1370</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
         <v>40084</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>1391</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
         <v>40091</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>1323</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
         <v>40098</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>1154</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
         <v>40105</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>1106</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
         <v>40112</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>1168</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
         <v>40119</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>1186</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
         <v>40126</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>1090</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
         <v>40133</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>1019</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
         <v>40140</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>1112</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
         <v>40147</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>1048</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
         <v>40154</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>1021</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
         <v>40161</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>1004</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
         <v>40168</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>651</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
         <v>40175</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>459</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
         <v>40182</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>1074</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
         <v>40189</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>1388</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
         <v>40196</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>897</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
         <v>40203</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>751</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
         <v>40210</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>687</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
         <v>40217</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>663</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
         <v>40224</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>652</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
         <v>40231</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>681</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
         <v>40238</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>794</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
         <v>40245</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>783</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
         <v>40252</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>856</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
         <v>40259</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>889</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
         <v>40266</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>752</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
         <v>40273</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>553</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
         <v>40280</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>909</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
         <v>40287</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>869</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
         <v>40294</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>863</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
         <v>40301</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>943</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
         <v>40308</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>863</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
         <v>40315</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>1041</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
         <v>40322</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>1036</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
         <v>40329</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>1624</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
         <v>40336</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>1696</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
         <v>40343</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>1887</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
         <v>40350</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>1837</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
         <v>40357</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>1875</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
         <v>40364</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>2033</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
         <v>40371</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>2021</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
         <v>40378</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>2069</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
         <v>40385</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>2114</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
         <v>40392</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>1943</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
         <v>40399</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>1960</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
         <v>40406</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>2045</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
         <v>40413</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>1865</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
         <v>40420</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>1781</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
         <v>40427</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>1589</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
         <v>40434</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>1464</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
         <v>40441</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>1517</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
         <v>40448</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>1460</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
         <v>40455</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>1382</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
         <v>40462</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>1450</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
         <v>40469</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>1266</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
         <v>40476</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>1359</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
         <v>40483</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>1265</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
         <v>40490</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>1354</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
         <v>40497</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>1395</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
         <v>40504</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>1212</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
         <v>40511</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>1104</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
         <v>40518</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>1029</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
         <v>40525</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>955</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
         <v>40532</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>690</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
         <v>40539</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>556</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
         <v>40546</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>878</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
         <v>40553</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>1249</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
         <v>40560</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>924</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
         <v>40567</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>745</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
         <v>40574</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>763</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
         <v>40581</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>860</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
         <v>40588</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>832</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
         <v>40595</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>754</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
         <v>40602</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>812</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
         <v>40609</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>746</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
         <v>40616</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>743</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
         <v>40623</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>760</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
         <v>40630</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>746</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
         <v>40637</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>806</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
         <v>40644</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>895</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
         <v>40651</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>775</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
         <v>40658</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>625</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
         <v>40665</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>1010</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
         <v>40672</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>980</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
         <v>40679</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>1181</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
         <v>40686</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>1565</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
         <v>40693</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>2244</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
         <v>40700</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>2435</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
         <v>40707</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>2186</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
         <v>40714</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>2130</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
         <v>40721</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>2324</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
         <v>40728</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>2447</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
         <v>40735</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>2389</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
         <v>40742</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>2288</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
         <v>40749</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>2079</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
         <v>40756</v>
       </c>
-      <c r="B502" t="n">
+      <c r="B502">
         <v>1908</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
         <v>40763</v>
       </c>
-      <c r="B503" t="n">
+      <c r="B503">
         <v>2120</v>
       </c>
     </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
         <v>40770</v>
       </c>
-      <c r="B504" t="n">
+      <c r="B504">
         <v>2082</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
         <v>40777</v>
       </c>
-      <c r="B505" t="n">
+      <c r="B505">
         <v>2098</v>
       </c>
     </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
         <v>40784</v>
       </c>
-      <c r="B506" t="n">
+      <c r="B506">
         <v>2160</v>
       </c>
     </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
         <v>40791</v>
       </c>
-      <c r="B507" t="n">
+      <c r="B507">
         <v>1975</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
         <v>40798</v>
       </c>
-      <c r="B508" t="n">
+      <c r="B508">
         <v>1821</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
         <v>40805</v>
       </c>
-      <c r="B509" t="n">
+      <c r="B509">
         <v>1700</v>
       </c>
     </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
         <v>40812</v>
       </c>
-      <c r="B510" t="n">
+      <c r="B510">
         <v>1385</v>
       </c>
     </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>40819</v>
-      </c>
-      <c r="B511" t="n">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>40826</v>
-      </c>
-      <c r="B512" t="n">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>40833</v>
-      </c>
-      <c r="B513" t="n">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>40840</v>
-      </c>
-      <c r="B514" t="n">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>40847</v>
-      </c>
-      <c r="B515" t="n">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>40854</v>
-      </c>
-      <c r="B516" t="n">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>40861</v>
-      </c>
-      <c r="B517" t="n">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>40868</v>
-      </c>
-      <c r="B518" t="n">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>40875</v>
-      </c>
-      <c r="B519" t="n">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>40882</v>
-      </c>
-      <c r="B520" t="n">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>40889</v>
-      </c>
-      <c r="B521" t="n">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>40896</v>
-      </c>
-      <c r="B522" t="n">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>40903</v>
-      </c>
-      <c r="B523" t="n">
-        <v>514</v>
-      </c>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1"/>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="1"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="1"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="1"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="1"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="1"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="1"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="1"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="1"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="1"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="1"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="1"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>